--- a/Resultados - metricas test.xlsx
+++ b/Resultados - metricas test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissa/Documents/NLP/ProyectoNLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AA08E-FE0D-5446-A1D5-AF344EF98230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649E581-A766-384E-BEF6-6FAAC21A65E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="740" windowWidth="13360" windowHeight="16680" activeTab="1" xr2:uid="{2F79C600-F93C-F042-BA3E-BF2AEA64D40E}"/>
+    <workbookView xWindow="15240" yWindow="740" windowWidth="13480" windowHeight="16680" activeTab="1" xr2:uid="{2F79C600-F93C-F042-BA3E-BF2AEA64D40E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test - Arhuaco" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t>Número épocas</t>
   </si>
@@ -80,6 +80,9 @@
   <si>
     <t>COMP_NDU</t>
   </si>
+  <si>
+    <t>COMPP_NC</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +126,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -130,17 +139,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -158,23 +156,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -207,7 +284,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7EE0BB-8E59-E44D-82E3-6E605C42347A}" name="Table1" displayName="Table1" ref="B4:F22" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7EE0BB-8E59-E44D-82E3-6E605C42347A}" name="Table1" displayName="Table1" ref="B4:F22" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B4:F22" xr:uid="{8C7EE0BB-8E59-E44D-82E3-6E605C42347A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F22">
     <sortCondition ref="B4:B22"/>
@@ -218,6 +295,34 @@
     <tableColumn id="3" xr3:uid="{B29833E3-E8FA-7F44-9B58-0DA7717F01CE}" name="Learning rate"/>
     <tableColumn id="6" xr3:uid="{3BE93D9A-AACE-1F4C-B28B-17D357F1A748}" name="BLEU"/>
     <tableColumn id="7" xr3:uid="{92078774-A5F2-7C4B-9562-694939C0202B}" name="ChrF2++"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D982C00-95C9-E945-9263-D8FF613055FA}" name="Table2" displayName="Table2" ref="H4:L22" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="H4:L22" xr:uid="{4D982C00-95C9-E945-9263-D8FF613055FA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1368C88E-C2D3-2F44-AF50-77A1E8A842BB}" name="Dataset" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DD846186-6CB8-E74A-9CDC-91968D86FA50}" name="Número épocas"/>
+    <tableColumn id="3" xr3:uid="{00A78CDD-1961-6341-89AB-9F34C4896E31}" name="Learning rate"/>
+    <tableColumn id="4" xr3:uid="{687D8B02-7D54-7946-A65D-4174DE05AEFE}" name="BLEU"/>
+    <tableColumn id="5" xr3:uid="{402F29D1-D612-4E4D-932B-F768E6924876}" name="ChrF2++"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEF4D7CF-BE10-5040-9F87-69E0F168F8B4}" name="Table3" displayName="Table3" ref="B4:F22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B4:F22" xr:uid="{DEF4D7CF-BE10-5040-9F87-69E0F168F8B4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3D293662-AF01-584B-AC0B-F6315CAD64F1}" name="Dataset"/>
+    <tableColumn id="2" xr3:uid="{5F7BF301-A8CA-794E-AB0C-1C136AB89945}" name="Número épocas"/>
+    <tableColumn id="3" xr3:uid="{E0EE8BBE-8765-D449-92DC-03DE1EABCEDA}" name="Learning rate"/>
+    <tableColumn id="4" xr3:uid="{5F0A5693-3DFD-C942-A2CA-9840159FA9BB}" name="BLEU"/>
+    <tableColumn id="5" xr3:uid="{5F188BBB-4AAF-DB41-8F2D-B2051C44BBA2}" name="ChrF2++"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,10 +628,14 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -560,19 +669,19 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -592,6 +701,21 @@
       <c r="F5">
         <v>12.49</v>
       </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K5">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="L5">
+        <v>28.22</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -609,6 +733,21 @@
       <c r="F6">
         <v>21.87</v>
       </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K6">
+        <v>2.68</v>
+      </c>
+      <c r="L6">
+        <v>21.53</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -626,6 +765,21 @@
       <c r="F7">
         <v>13.93</v>
       </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K7">
+        <v>13.99</v>
+      </c>
+      <c r="L7">
+        <v>34.119999999999997</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -643,6 +797,21 @@
       <c r="F8">
         <v>24.15</v>
       </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K8">
+        <v>2.66</v>
+      </c>
+      <c r="L8">
+        <v>21.89</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -660,6 +829,21 @@
       <c r="F9">
         <v>25.53</v>
       </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K9">
+        <v>19.3</v>
+      </c>
+      <c r="L9">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -676,6 +860,21 @@
       </c>
       <c r="F10">
         <v>19.09</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K10">
+        <v>1.71</v>
+      </c>
+      <c r="L10">
+        <v>18.190000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -694,6 +893,21 @@
       <c r="F11">
         <v>13.05</v>
       </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K11">
+        <v>10.33</v>
+      </c>
+      <c r="L11">
+        <v>30.61</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -711,6 +925,21 @@
       <c r="F12">
         <v>20.73</v>
       </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K12">
+        <v>1.81</v>
+      </c>
+      <c r="L12">
+        <v>20.64</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -728,6 +957,21 @@
       <c r="F13">
         <v>23.04</v>
       </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K13">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="L13">
+        <v>38.840000000000003</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -745,6 +989,21 @@
       <c r="F14">
         <v>14.23</v>
       </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K14">
+        <v>2.36</v>
+      </c>
+      <c r="L14">
+        <v>22.91</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -762,6 +1021,21 @@
       <c r="F15">
         <v>18.64</v>
       </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K15">
+        <v>16.96</v>
+      </c>
+      <c r="L15">
+        <v>40.58</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -779,8 +1053,23 @@
       <c r="F16">
         <v>24.74</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K16">
+        <v>2.34</v>
+      </c>
+      <c r="L16">
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -796,8 +1085,23 @@
       <c r="F17">
         <v>21.65</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K17">
+        <v>12.86</v>
+      </c>
+      <c r="L17">
+        <v>33.659999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -813,8 +1117,23 @@
       <c r="F18">
         <v>12.44</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K18">
+        <v>3.41</v>
+      </c>
+      <c r="L18">
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -830,8 +1149,23 @@
       <c r="F19">
         <v>23.72</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K19">
+        <v>18.11</v>
+      </c>
+      <c r="L19">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -847,8 +1181,23 @@
       <c r="F20">
         <v>13.69</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K20">
+        <v>3.87</v>
+      </c>
+      <c r="L20">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -864,8 +1213,23 @@
       <c r="F21">
         <v>26.51</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="L21">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -880,6 +1244,21 @@
       </c>
       <c r="F22">
         <v>18.32</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K22">
+        <v>2.82</v>
+      </c>
+      <c r="L22">
+        <v>22.26</v>
       </c>
     </row>
   </sheetData>
@@ -888,18 +1267,19 @@
     <mergeCell ref="H2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25D4ADF-D0A4-2048-9DFD-5B597367582C}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,11 +1529,92 @@
         <v>31.98</v>
       </c>
     </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E17">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F17">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E18">
+        <v>7.48</v>
+      </c>
+      <c r="F18">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E19">
+        <v>1.49</v>
+      </c>
+      <c r="F19">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E20">
+        <v>6.26</v>
+      </c>
+      <c r="F20">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>